--- a/contratos/contratos-1-2014.xlsx
+++ b/contratos/contratos-1-2014.xlsx
@@ -661,7 +661,7 @@
     <t>PEREZ RUBEN</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>SERVICER S.A.</t>
@@ -760,7 +760,7 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>GALVAN GUILLERMO ANDRES</t>
@@ -793,7 +793,7 @@
     <t>SYLVESTRE CARLOS OMAR</t>
   </si>
   <si>
-    <t>TRABICHET MARIA, VERGARA ADEL Y OTRA</t>
+    <t>TRABICHET MARIA. VERGARA ADEL Y OTRA</t>
   </si>
   <si>
     <t>EICHHORST ROBERTO DIONISIO</t>
@@ -805,7 +805,7 @@
     <t>ORGANIZACION DELASOIE HNOS. S.A.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>SIAFA S.R.L.</t>
@@ -892,13 +892,13 @@
     <t>BARDISA EDUARDO SUCESION</t>
   </si>
   <si>
-    <t>DODERA, JORGE ABELARDO</t>
+    <t>DODERA. JORGE ABELARDO</t>
   </si>
   <si>
     <t>MAGRI HECTOR RAMON</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CENTINELA S.R.L.</t>
@@ -1114,7 +1114,7 @@
     <t>TITO SONIDO</t>
   </si>
   <si>
-    <t>MERCANZINI, GASTON ARIEL</t>
+    <t>MERCANZINI. GASTON ARIEL</t>
   </si>
   <si>
     <t>EL PINCEL TRAVIESO</t>
@@ -1123,7 +1123,7 @@
     <t>INDUQUIMICA S.A.</t>
   </si>
   <si>
-    <t>OLVEIRA, ALBERTO MIGUEL</t>
+    <t>OLVEIRA. ALBERTO MIGUEL</t>
   </si>
   <si>
     <t>LA PRENSA FEDERAL</t>
@@ -1276,607 +1276,607 @@
     <t>9</t>
   </si>
   <si>
-    <t>27.920,00</t>
-  </si>
-  <si>
-    <t>3.800,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>0,50</t>
-  </si>
-  <si>
-    <t>3.665,00</t>
-  </si>
-  <si>
-    <t>257.282,40</t>
-  </si>
-  <si>
-    <t>1.620,00</t>
-  </si>
-  <si>
-    <t>1.103,40</t>
-  </si>
-  <si>
-    <t>310,00</t>
-  </si>
-  <si>
-    <t>87.801,76</t>
-  </si>
-  <si>
-    <t>2.334,00</t>
-  </si>
-  <si>
-    <t>52.307,95</t>
-  </si>
-  <si>
-    <t>2.311,20</t>
-  </si>
-  <si>
-    <t>6.475,71</t>
-  </si>
-  <si>
-    <t>4.905,00</t>
-  </si>
-  <si>
-    <t>1.450,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>1.760,00</t>
-  </si>
-  <si>
-    <t>100,48</t>
-  </si>
-  <si>
-    <t>39,40</t>
-  </si>
-  <si>
-    <t>16,50</t>
-  </si>
-  <si>
-    <t>640,00</t>
-  </si>
-  <si>
-    <t>163.865,73</t>
-  </si>
-  <si>
-    <t>8.400,00</t>
-  </si>
-  <si>
-    <t>583,86</t>
-  </si>
-  <si>
-    <t>692,00</t>
-  </si>
-  <si>
-    <t>230.707,80</t>
-  </si>
-  <si>
-    <t>13,26</t>
-  </si>
-  <si>
-    <t>380,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>25,56</t>
-  </si>
-  <si>
-    <t>2.102,69</t>
-  </si>
-  <si>
-    <t>61.391,00</t>
-  </si>
-  <si>
-    <t>1.547,00</t>
-  </si>
-  <si>
-    <t>128.681,35</t>
-  </si>
-  <si>
-    <t>8,00</t>
-  </si>
-  <si>
-    <t>620,00</t>
-  </si>
-  <si>
-    <t>48,00</t>
-  </si>
-  <si>
-    <t>3.094,26</t>
-  </si>
-  <si>
-    <t>40,00</t>
-  </si>
-  <si>
-    <t>1.960,00</t>
-  </si>
-  <si>
-    <t>751,18</t>
-  </si>
-  <si>
-    <t>3.141,60</t>
-  </si>
-  <si>
-    <t>15.957,00</t>
-  </si>
-  <si>
-    <t>24,00</t>
-  </si>
-  <si>
-    <t>1.596,90</t>
-  </si>
-  <si>
-    <t>10.737,54</t>
-  </si>
-  <si>
-    <t>314,47</t>
-  </si>
-  <si>
-    <t>170,00</t>
-  </si>
-  <si>
-    <t>4.849,08</t>
-  </si>
-  <si>
-    <t>28.750,77</t>
-  </si>
-  <si>
-    <t>7.725,75</t>
-  </si>
-  <si>
-    <t>1.835,00</t>
-  </si>
-  <si>
-    <t>31.984,60</t>
-  </si>
-  <si>
-    <t>2.670,36</t>
-  </si>
-  <si>
-    <t>3.809,08</t>
-  </si>
-  <si>
-    <t>2.974,00</t>
-  </si>
-  <si>
-    <t>557,15</t>
-  </si>
-  <si>
-    <t>534,99</t>
-  </si>
-  <si>
-    <t>21.670,00</t>
-  </si>
-  <si>
-    <t>3.736,56</t>
-  </si>
-  <si>
-    <t>2.753,00</t>
-  </si>
-  <si>
-    <t>4.968,82</t>
-  </si>
-  <si>
-    <t>28.000,00</t>
-  </si>
-  <si>
-    <t>1.628,66</t>
-  </si>
-  <si>
-    <t>118,65</t>
-  </si>
-  <si>
-    <t>2.240,00</t>
-  </si>
-  <si>
-    <t>42.000,00</t>
-  </si>
-  <si>
-    <t>6.691,00</t>
-  </si>
-  <si>
-    <t>4.445,00</t>
-  </si>
-  <si>
-    <t>56.840,00</t>
-  </si>
-  <si>
-    <t>3.850,00</t>
-  </si>
-  <si>
-    <t>25.560,00</t>
-  </si>
-  <si>
-    <t>14.040,00</t>
-  </si>
-  <si>
-    <t>2.660,00</t>
-  </si>
-  <si>
-    <t>22.796,00</t>
-  </si>
-  <si>
-    <t>1.380,00</t>
-  </si>
-  <si>
-    <t>21.196,80</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>289,00</t>
-  </si>
-  <si>
-    <t>7.587,00</t>
-  </si>
-  <si>
-    <t>1.820,00</t>
-  </si>
-  <si>
-    <t>20.916,00</t>
-  </si>
-  <si>
-    <t>512,70</t>
-  </si>
-  <si>
-    <t>16.980,00</t>
-  </si>
-  <si>
-    <t>2.600,00</t>
-  </si>
-  <si>
-    <t>270.000,00</t>
-  </si>
-  <si>
-    <t>154.320,00</t>
-  </si>
-  <si>
-    <t>334.375,87</t>
-  </si>
-  <si>
-    <t>139.500,00</t>
-  </si>
-  <si>
-    <t>5.846,78</t>
-  </si>
-  <si>
-    <t>1.320,00</t>
-  </si>
-  <si>
-    <t>9,25</t>
-  </si>
-  <si>
-    <t>17,78</t>
-  </si>
-  <si>
-    <t>699,66</t>
-  </si>
-  <si>
-    <t>8.905,00</t>
-  </si>
-  <si>
-    <t>490,50</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>2.512,00</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>5.793,65</t>
-  </si>
-  <si>
-    <t>311,20</t>
-  </si>
-  <si>
-    <t>297,00</t>
-  </si>
-  <si>
-    <t>228,68</t>
-  </si>
-  <si>
-    <t>97,10</t>
-  </si>
-  <si>
-    <t>1.518,00</t>
-  </si>
-  <si>
-    <t>3.747,08</t>
-  </si>
-  <si>
-    <t>6.702,71</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>1.842,00</t>
-  </si>
-  <si>
-    <t>30.080,00</t>
-  </si>
-  <si>
-    <t>3.980,00</t>
-  </si>
-  <si>
-    <t>1.980,00</t>
-  </si>
-  <si>
-    <t>23.100,00</t>
-  </si>
-  <si>
-    <t>132.000,00</t>
-  </si>
-  <si>
-    <t>3.150,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>298.685,00</t>
-  </si>
-  <si>
-    <t>1.276,00</t>
-  </si>
-  <si>
-    <t>66,51</t>
-  </si>
-  <si>
-    <t>1.556,00</t>
-  </si>
-  <si>
-    <t>51,76</t>
-  </si>
-  <si>
-    <t>169,66</t>
-  </si>
-  <si>
-    <t>20,00</t>
-  </si>
-  <si>
-    <t>1.734,00</t>
-  </si>
-  <si>
-    <t>132.623,60</t>
-  </si>
-  <si>
-    <t>83.865,60</t>
-  </si>
-  <si>
-    <t>3.025,00</t>
-  </si>
-  <si>
-    <t>3.960,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>7.114,80</t>
-  </si>
-  <si>
-    <t>460,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>3.315,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>4.962,00</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>678,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>290,00</t>
-  </si>
-  <si>
-    <t>1.090,00</t>
-  </si>
-  <si>
-    <t>2.350,00</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>6.550,00</t>
-  </si>
-  <si>
-    <t>443,13</t>
-  </si>
-  <si>
-    <t>1.179,00</t>
-  </si>
-  <si>
-    <t>280,00</t>
-  </si>
-  <si>
-    <t>1.127,00</t>
-  </si>
-  <si>
-    <t>1.184,74</t>
-  </si>
-  <si>
-    <t>19.433,99</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>452,00</t>
-  </si>
-  <si>
-    <t>5.400,00</t>
-  </si>
-  <si>
-    <t>4.006,55</t>
-  </si>
-  <si>
-    <t>209,80</t>
-  </si>
-  <si>
-    <t>404,00</t>
-  </si>
-  <si>
-    <t>322,00</t>
-  </si>
-  <si>
-    <t>420,14</t>
-  </si>
-  <si>
-    <t>220,00</t>
-  </si>
-  <si>
-    <t>17.166,01</t>
-  </si>
-  <si>
-    <t>18,00</t>
-  </si>
-  <si>
-    <t>2.536,00</t>
-  </si>
-  <si>
-    <t>657,00</t>
-  </si>
-  <si>
-    <t>7.055,00</t>
-  </si>
-  <si>
-    <t>84,00</t>
-  </si>
-  <si>
-    <t>112,77</t>
-  </si>
-  <si>
-    <t>854,04</t>
-  </si>
-  <si>
-    <t>24,07</t>
-  </si>
-  <si>
-    <t>3.890,00</t>
-  </si>
-  <si>
-    <t>185,55</t>
-  </si>
-  <si>
-    <t>9.670,90</t>
-  </si>
-  <si>
-    <t>2.613,90</t>
-  </si>
-  <si>
-    <t>6.554,33</t>
-  </si>
-  <si>
-    <t>35.910,00</t>
-  </si>
-  <si>
-    <t>2.050,00</t>
-  </si>
-  <si>
-    <t>28.500,00</t>
-  </si>
-  <si>
-    <t>7.900,00</t>
-  </si>
-  <si>
-    <t>3.900,00</t>
-  </si>
-  <si>
-    <t>112.000,00</t>
-  </si>
-  <si>
-    <t>145.000,00</t>
-  </si>
-  <si>
-    <t>432.000,00</t>
-  </si>
-  <si>
-    <t>1.347.594,50</t>
-  </si>
-  <si>
-    <t>390.538,69</t>
-  </si>
-  <si>
-    <t>208.565,00</t>
-  </si>
-  <si>
-    <t>7.200,10</t>
-  </si>
-  <si>
-    <t>81.520,00</t>
-  </si>
-  <si>
-    <t>4.143,24</t>
-  </si>
-  <si>
-    <t>17.400,00</t>
-  </si>
-  <si>
-    <t>4.775,00</t>
-  </si>
-  <si>
-    <t>6.400,00</t>
-  </si>
-  <si>
-    <t>31.900,00</t>
-  </si>
-  <si>
-    <t>2.540,94</t>
-  </si>
-  <si>
-    <t>198,00</t>
+    <t>27920.00</t>
+  </si>
+  <si>
+    <t>3800.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>3665.00</t>
+  </si>
+  <si>
+    <t>257282.40</t>
+  </si>
+  <si>
+    <t>1620.00</t>
+  </si>
+  <si>
+    <t>1103.40</t>
+  </si>
+  <si>
+    <t>310.00</t>
+  </si>
+  <si>
+    <t>87801.76</t>
+  </si>
+  <si>
+    <t>2334.00</t>
+  </si>
+  <si>
+    <t>52307.95</t>
+  </si>
+  <si>
+    <t>2311.20</t>
+  </si>
+  <si>
+    <t>6475.71</t>
+  </si>
+  <si>
+    <t>4905.00</t>
+  </si>
+  <si>
+    <t>1450.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>1760.00</t>
+  </si>
+  <si>
+    <t>100.48</t>
+  </si>
+  <si>
+    <t>39.40</t>
+  </si>
+  <si>
+    <t>16.50</t>
+  </si>
+  <si>
+    <t>640.00</t>
+  </si>
+  <si>
+    <t>163865.73</t>
+  </si>
+  <si>
+    <t>8400.00</t>
+  </si>
+  <si>
+    <t>583.86</t>
+  </si>
+  <si>
+    <t>692.00</t>
+  </si>
+  <si>
+    <t>230707.80</t>
+  </si>
+  <si>
+    <t>13.26</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>25.56</t>
+  </si>
+  <si>
+    <t>2102.69</t>
+  </si>
+  <si>
+    <t>61391.00</t>
+  </si>
+  <si>
+    <t>1547.00</t>
+  </si>
+  <si>
+    <t>128681.35</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>620.00</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>3094.26</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>1960.00</t>
+  </si>
+  <si>
+    <t>751.18</t>
+  </si>
+  <si>
+    <t>3141.60</t>
+  </si>
+  <si>
+    <t>15957.00</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>1596.90</t>
+  </si>
+  <si>
+    <t>10737.54</t>
+  </si>
+  <si>
+    <t>314.47</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>4849.08</t>
+  </si>
+  <si>
+    <t>28750.77</t>
+  </si>
+  <si>
+    <t>7725.75</t>
+  </si>
+  <si>
+    <t>1835.00</t>
+  </si>
+  <si>
+    <t>31984.60</t>
+  </si>
+  <si>
+    <t>2670.36</t>
+  </si>
+  <si>
+    <t>3809.08</t>
+  </si>
+  <si>
+    <t>2974.00</t>
+  </si>
+  <si>
+    <t>557.15</t>
+  </si>
+  <si>
+    <t>534.99</t>
+  </si>
+  <si>
+    <t>21670.00</t>
+  </si>
+  <si>
+    <t>3736.56</t>
+  </si>
+  <si>
+    <t>2753.00</t>
+  </si>
+  <si>
+    <t>4968.82</t>
+  </si>
+  <si>
+    <t>28000.00</t>
+  </si>
+  <si>
+    <t>1628.66</t>
+  </si>
+  <si>
+    <t>118.65</t>
+  </si>
+  <si>
+    <t>2240.00</t>
+  </si>
+  <si>
+    <t>42000.00</t>
+  </si>
+  <si>
+    <t>6691.00</t>
+  </si>
+  <si>
+    <t>4445.00</t>
+  </si>
+  <si>
+    <t>56840.00</t>
+  </si>
+  <si>
+    <t>3850.00</t>
+  </si>
+  <si>
+    <t>25560.00</t>
+  </si>
+  <si>
+    <t>14040.00</t>
+  </si>
+  <si>
+    <t>2660.00</t>
+  </si>
+  <si>
+    <t>22796.00</t>
+  </si>
+  <si>
+    <t>1380.00</t>
+  </si>
+  <si>
+    <t>21196.80</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>289.00</t>
+  </si>
+  <si>
+    <t>7587.00</t>
+  </si>
+  <si>
+    <t>1820.00</t>
+  </si>
+  <si>
+    <t>20916.00</t>
+  </si>
+  <si>
+    <t>512.70</t>
+  </si>
+  <si>
+    <t>16980.00</t>
+  </si>
+  <si>
+    <t>2600.00</t>
+  </si>
+  <si>
+    <t>270000.00</t>
+  </si>
+  <si>
+    <t>154320.00</t>
+  </si>
+  <si>
+    <t>334375.87</t>
+  </si>
+  <si>
+    <t>139500.00</t>
+  </si>
+  <si>
+    <t>5846.78</t>
+  </si>
+  <si>
+    <t>1320.00</t>
+  </si>
+  <si>
+    <t>9.25</t>
+  </si>
+  <si>
+    <t>17.78</t>
+  </si>
+  <si>
+    <t>699.66</t>
+  </si>
+  <si>
+    <t>8905.00</t>
+  </si>
+  <si>
+    <t>490.50</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>2512.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>5793.65</t>
+  </si>
+  <si>
+    <t>311.20</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>228.68</t>
+  </si>
+  <si>
+    <t>97.10</t>
+  </si>
+  <si>
+    <t>1518.00</t>
+  </si>
+  <si>
+    <t>3747.08</t>
+  </si>
+  <si>
+    <t>6702.71</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>1842.00</t>
+  </si>
+  <si>
+    <t>30080.00</t>
+  </si>
+  <si>
+    <t>3980.00</t>
+  </si>
+  <si>
+    <t>1980.00</t>
+  </si>
+  <si>
+    <t>23100.00</t>
+  </si>
+  <si>
+    <t>132000.00</t>
+  </si>
+  <si>
+    <t>3150.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>298685.00</t>
+  </si>
+  <si>
+    <t>1276.00</t>
+  </si>
+  <si>
+    <t>66.51</t>
+  </si>
+  <si>
+    <t>1556.00</t>
+  </si>
+  <si>
+    <t>51.76</t>
+  </si>
+  <si>
+    <t>169.66</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>1734.00</t>
+  </si>
+  <si>
+    <t>132623.60</t>
+  </si>
+  <si>
+    <t>83865.60</t>
+  </si>
+  <si>
+    <t>3025.00</t>
+  </si>
+  <si>
+    <t>3960.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>7114.80</t>
+  </si>
+  <si>
+    <t>460.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>3315.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>4962.00</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>678.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>1090.00</t>
+  </si>
+  <si>
+    <t>2350.00</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>6550.00</t>
+  </si>
+  <si>
+    <t>443.13</t>
+  </si>
+  <si>
+    <t>1179.00</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>1127.00</t>
+  </si>
+  <si>
+    <t>1184.74</t>
+  </si>
+  <si>
+    <t>19433.99</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>452.00</t>
+  </si>
+  <si>
+    <t>5400.00</t>
+  </si>
+  <si>
+    <t>4006.55</t>
+  </si>
+  <si>
+    <t>209.80</t>
+  </si>
+  <si>
+    <t>404.00</t>
+  </si>
+  <si>
+    <t>322.00</t>
+  </si>
+  <si>
+    <t>420.14</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>17166.01</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>2536.00</t>
+  </si>
+  <si>
+    <t>657.00</t>
+  </si>
+  <si>
+    <t>7055.00</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>112.77</t>
+  </si>
+  <si>
+    <t>854.04</t>
+  </si>
+  <si>
+    <t>24.07</t>
+  </si>
+  <si>
+    <t>3890.00</t>
+  </si>
+  <si>
+    <t>185.55</t>
+  </si>
+  <si>
+    <t>9670.90</t>
+  </si>
+  <si>
+    <t>2613.90</t>
+  </si>
+  <si>
+    <t>6554.33</t>
+  </si>
+  <si>
+    <t>35910.00</t>
+  </si>
+  <si>
+    <t>2050.00</t>
+  </si>
+  <si>
+    <t>28500.00</t>
+  </si>
+  <si>
+    <t>7900.00</t>
+  </si>
+  <si>
+    <t>3900.00</t>
+  </si>
+  <si>
+    <t>112000.00</t>
+  </si>
+  <si>
+    <t>145000.00</t>
+  </si>
+  <si>
+    <t>432000.00</t>
+  </si>
+  <si>
+    <t>1347594.50</t>
+  </si>
+  <si>
+    <t>390538.69</t>
+  </si>
+  <si>
+    <t>208565.00</t>
+  </si>
+  <si>
+    <t>7200.10</t>
+  </si>
+  <si>
+    <t>81520.00</t>
+  </si>
+  <si>
+    <t>4143.24</t>
+  </si>
+  <si>
+    <t>17400.00</t>
+  </si>
+  <si>
+    <t>4775.00</t>
+  </si>
+  <si>
+    <t>6400.00</t>
+  </si>
+  <si>
+    <t>31900.00</t>
+  </si>
+  <si>
+    <t>2540.94</t>
+  </si>
+  <si>
+    <t>198.00</t>
   </si>
 </sst>
 </file>
